--- a/src/Losses Table.xlsx
+++ b/src/Losses Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4125B410-A083-4E1A-8BD8-4992E46B1C76}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64CFD1E4-9643-43D3-9161-11F4A19FD785}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>5.0000000000000044E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/Losses Table.xlsx
+++ b/src/Losses Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64CFD1E4-9643-43D3-9161-11F4A19FD785}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC1048B2119E5C9C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F15333-1111-46C3-B2BD-45AD275CB344}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4630" yWindow="4070" windowWidth="16160" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,16 +381,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -406,7 +406,7 @@
         <v>1.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -414,7 +414,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -422,7 +422,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -433,4 +433,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{cb900d8d-e34c-495b-bcac-83a2298b7739}" enabled="1" method="Standard" siteId="{fda0a4a7-3813-444d-808d-54bb327d0367}" removed="0"/>
+</clbl:labelList>
 </file>